--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 2 (26, 13, 27, 25, 16)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(26, 13, 27, 25, 16)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 2 (26, 13, 27, 25, 16)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(26, 13, 27, 25, 16)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.408067175376635E-06</v>
+        <v>3.350246346883397E-06</v>
       </c>
       <c r="E2">
-        <v>3.408067175376635E-06</v>
+        <v>3.350246346883397E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999993392469044</v>
+        <v>0.9999993737879103</v>
       </c>
       <c r="E3">
-        <v>0.9999993392469044</v>
+        <v>0.9999993737879103</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.001946276573108885</v>
+        <v>0.001940857690868451</v>
       </c>
       <c r="E4">
-        <v>0.001946276573108885</v>
+        <v>0.001940857690868451</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0007019413260105665</v>
+        <v>0.000703243848620176</v>
       </c>
       <c r="E5">
-        <v>0.0007019413260105665</v>
+        <v>0.000703243848620176</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.208391704017923</v>
+        <v>0.2085961200085212</v>
       </c>
       <c r="E6">
-        <v>0.208391704017923</v>
+        <v>0.2085961200085212</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.989893441434282</v>
+        <v>2.748387609522148E-07</v>
       </c>
       <c r="E7">
-        <v>0.01010655856571796</v>
+        <v>0.999999725161239</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9893876401210716</v>
+        <v>0.9666032262413636</v>
       </c>
       <c r="E8">
-        <v>0.01061235987892839</v>
+        <v>0.03339677375863637</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9904016242973918</v>
+        <v>0.9909612988229372</v>
       </c>
       <c r="E9">
-        <v>0.009598375702608242</v>
+        <v>0.009038701177062847</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9905815634753559</v>
+        <v>0.9999999999878302</v>
       </c>
       <c r="E10">
-        <v>0.009418436524644136</v>
+        <v>1.216982070673112E-11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9902362459532212</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.009763754046778761</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.451597332954407</v>
+        <v>2.967030048370361</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>7.070940959981071E-08</v>
+        <v>7.230541161122107E-08</v>
       </c>
       <c r="E12">
-        <v>7.070940959981071E-08</v>
+        <v>7.230541161122107E-08</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.003612731985345756</v>
+        <v>0.00362969747672327</v>
       </c>
       <c r="E13">
-        <v>0.003612731985345756</v>
+        <v>0.00362969747672327</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.0001792122131965195</v>
+        <v>0.0001793884047319373</v>
       </c>
       <c r="E14">
-        <v>0.0001792122131965195</v>
+        <v>0.0001793884047319373</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>8.059539724932431E-05</v>
+        <v>8.059239550830151E-05</v>
       </c>
       <c r="E15">
-        <v>8.059539724932431E-05</v>
+        <v>8.059239550830151E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.07427134282964948</v>
+        <v>0.07418202768473928</v>
       </c>
       <c r="E16">
-        <v>0.07427134282964948</v>
+        <v>0.07418202768473928</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9981372688658406</v>
+        <v>3.931660192611175E-10</v>
       </c>
       <c r="E17">
-        <v>0.001862731134159357</v>
+        <v>0.9999999996068339</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9979817258547021</v>
+        <v>0.9951765220807354</v>
       </c>
       <c r="E18">
-        <v>0.002018274145297871</v>
+        <v>0.004823477919264629</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9982866837201265</v>
+        <v>0.9995181554110644</v>
       </c>
       <c r="E19">
-        <v>0.001713316279873478</v>
+        <v>0.0004818445889356315</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9983345390764941</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.001665460923505946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9982289091108241</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.00177109088917593</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.009009243920445442</v>
+        <v>2.174308061599731</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
